--- a/biology/Botanique/Parc_Georges_Henri/Parc_Georges_Henri.xlsx
+++ b/biology/Botanique/Parc_Georges_Henri/Parc_Georges_Henri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Georges Henri est un parc situé dans la commune de Woluwe-Saint-Lambert à  Bruxelles en Belgique. Il se situe à côté du square de Meudon. L'aménagement du parc résulte de la désaffectation du cimetière d'Etterbeek, qui avait été construit en 1897 sur une parcelle de trois hectares[1].
+Le parc Georges Henri est un parc situé dans la commune de Woluwe-Saint-Lambert à  Bruxelles en Belgique. Il se situe à côté du square de Meudon. L'aménagement du parc résulte de la désaffectation du cimetière d'Etterbeek, qui avait été construit en 1897 sur une parcelle de trois hectares.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la désaffectation du cimetière d'Etterbeek en 1966, la commune d'Etterbeek avait l'intention de le lotir. Le site fut finalement sauvegardé grâce à son rachat par le ministère des affaires bruxelloises en 1985. Sa conversion en parc fut confiée aux architectes paysagistes Jean-Noël Capart et Jacques Boulanger-Français en 1987-1989. Les architectes ont respecté le tracé et la largeur des allées de l'ancien cimetière. Leur sol est constitué d'anciennes pierres tombales. L'entrée monumentale de l'ancien cimetière, constituée d'une grille et d'obélisques, a également été conservée. Chaque année, et ce depuis 10 ans, la commune organise le Festival " Ô les chœurs " organisé par le chorale PolyFolies[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la désaffectation du cimetière d'Etterbeek en 1966, la commune d'Etterbeek avait l'intention de le lotir. Le site fut finalement sauvegardé grâce à son rachat par le ministère des affaires bruxelloises en 1985. Sa conversion en parc fut confiée aux architectes paysagistes Jean-Noël Capart et Jacques Boulanger-Français en 1987-1989. Les architectes ont respecté le tracé et la largeur des allées de l'ancien cimetière. Leur sol est constitué d'anciennes pierres tombales. L'entrée monumentale de l'ancien cimetière, constituée d'une grille et d'obélisques, a également été conservée. Chaque année, et ce depuis 10 ans, la commune organise le Festival " Ô les chœurs " organisé par le chorale PolyFolies.
 Le parc tient son nom de l'avenue Georges Henri.
 </t>
         </is>
